--- a/dist/data/profiles/xlsx/bluff/profile 31-8 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 31-8 graph.xlsx
@@ -10815,11 +10815,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26116888"/>
-        <c:axId val="75573058"/>
+        <c:axId val="44446227"/>
+        <c:axId val="58884547"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26116888"/>
+        <c:axId val="44446227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10854,12 +10854,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75573058"/>
+        <c:crossAx val="58884547"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75573058"/>
+        <c:axId val="58884547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10903,7 +10903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26116888"/>
+        <c:crossAx val="44446227"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
